--- a/cea_energy_hub_optimizer/data/example_techDefinition_daily_after_presentation.xlsx
+++ b/cea_energy_hub_optimizer/data/example_techDefinition_daily_after_presentation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangy\Documents\GitHub\energy_hub_optimizer_calliope\cea_energy_hub_optimizer\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58076D5E-C78D-4454-BF50-9220AFEFC180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C651DE-8F0F-4CBE-99E5-D7705EA25899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-69" yWindow="-69" windowWidth="24823" windowHeight="15875" activeTab="2" xr2:uid="{3D0A62A3-FD81-47EE-AB31-50A82C57680E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{3D0A62A3-FD81-47EE-AB31-50A82C57680E}"/>
   </bookViews>
   <sheets>
     <sheet name="supply" sheetId="5" r:id="rId1"/>
@@ -68,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{BF94E0D0-CF1A-4E6A-826E-30BA18B65D8A}">
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{BF94E0D0-CF1A-4E6A-826E-30BA18B65D8A}">
       <text>
         <r>
           <rPr>
@@ -92,31 +92,57 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{5F07713E-B53A-4F68-B948-0DE6093B4E37}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Yiqiao Wang:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-kbob</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{29079865-22BD-4294-8AAF-CA614A3F9A35}">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{C4057356-491B-4801-91F0-1B97B775C8BD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Yiqiao Wang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+price level from energie360 October 2024</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G7" authorId="0" shapeId="0" xr:uid="{5F07713E-B53A-4F68-B948-0DE6093B4E37}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Yiqiao Wang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+kbob
+natural gas: 0.23kg/kWh
+biogas: 0.124kg/kWh</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{29079865-22BD-4294-8AAF-CA614A3F9A35}">
       <text>
         <r>
           <rPr>
@@ -141,7 +167,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F6" authorId="0" shapeId="0" xr:uid="{33A05C13-4314-4914-82EE-E11B048CC5C7}">
+    <comment ref="G8" authorId="0" shapeId="0" xr:uid="{33A05C13-4314-4914-82EE-E11B048CC5C7}">
       <text>
         <r>
           <rPr>
@@ -165,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{B664C2FD-AA61-4A19-91B5-C6D3502ACED2}">
+    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{B664C2FD-AA61-4A19-91B5-C6D3502ACED2}">
       <text>
         <r>
           <rPr>
@@ -190,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{F979F4B1-5E70-4C02-B7AD-A61C2F5CB7BC}">
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{F979F4B1-5E70-4C02-B7AD-A61C2F5CB7BC}">
       <text>
         <r>
           <rPr>
@@ -249,7 +275,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{381592D0-4B82-44EA-8DB3-F97383AB5D21}">
+    <comment ref="N3" authorId="0" shapeId="0" xr:uid="{381592D0-4B82-44EA-8DB3-F97383AB5D21}">
       <text>
         <r>
           <rPr>
@@ -273,7 +299,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{61312002-E024-4292-93F4-FD63A14A1DFD}">
+    <comment ref="O3" authorId="0" shapeId="0" xr:uid="{61312002-E024-4292-93F4-FD63A14A1DFD}">
       <text>
         <r>
           <rPr>
@@ -298,7 +324,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{F156C5E5-9988-454F-B199-E54895C12234}">
+    <comment ref="P3" authorId="0" shapeId="0" xr:uid="{F156C5E5-9988-454F-B199-E54895C12234}">
       <text>
         <r>
           <rPr>
@@ -322,7 +348,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="0" shapeId="0" xr:uid="{AEFC007F-1ADD-4627-B6DF-D92185D067E3}">
+    <comment ref="Q3" authorId="0" shapeId="0" xr:uid="{AEFC007F-1ADD-4627-B6DF-D92185D067E3}">
       <text>
         <r>
           <rPr>
@@ -346,7 +372,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="0" shapeId="0" xr:uid="{164D751A-85F8-4A50-833D-EAAD0DAA59C2}">
+    <comment ref="R3" authorId="0" shapeId="0" xr:uid="{164D751A-85F8-4A50-833D-EAAD0DAA59C2}">
       <text>
         <r>
           <rPr>
@@ -370,6 +396,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{C87542E5-B9D0-41F1-B992-49245DFC4398}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Yiqiao Wang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+all PV technologies must start with "PV" (for example, PV_test), otherwise there might be error evaluating solar technologies.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E4" authorId="0" shapeId="0" xr:uid="{40FA396B-6FD6-43AE-B8F8-72C7B392CC88}">
       <text>
         <r>
@@ -418,7 +468,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{637B0CCF-82B9-4C6D-A8BB-FCB6633100EF}">
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{637B0CCF-82B9-4C6D-A8BB-FCB6633100EF}">
       <text>
         <r>
           <rPr>
@@ -439,6 +489,54 @@
           </rPr>
           <t xml:space="preserve">
 34.029 from KBOB</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O4" authorId="0" shapeId="0" xr:uid="{8EE717DF-D18B-4B26-8B9C-E96790BAC231}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Yiqiao Wang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+note: this efficiency must be equal to CEA's PV efficiency!</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{566E3B0B-5602-4C82-9E8B-8F972117223C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Yiqiao Wang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+all SCFP technologies must start with "SCFP", otherwise there might be error evaluating solar technologies.</t>
         </r>
       </text>
     </comment>
@@ -470,7 +568,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G8" authorId="0" shapeId="0" xr:uid="{F8D9F75B-0547-4549-8288-A925727BEEAA}">
+    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{F8D9F75B-0547-4549-8288-A925727BEEAA}">
       <text>
         <r>
           <rPr>
@@ -494,7 +592,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K8" authorId="0" shapeId="0" xr:uid="{B542349D-BC24-4C65-A89F-1B47531CAF34}">
+    <comment ref="O8" authorId="0" shapeId="0" xr:uid="{B542349D-BC24-4C65-A89F-1B47531CAF34}">
       <text>
         <r>
           <rPr>
@@ -518,7 +616,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N8" authorId="0" shapeId="0" xr:uid="{2DCFA103-1274-4847-83A7-AC3F88F17291}">
+    <comment ref="R8" authorId="0" shapeId="0" xr:uid="{2DCFA103-1274-4847-83A7-AC3F88F17291}">
       <text>
         <r>
           <rPr>
@@ -542,7 +640,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G9" authorId="0" shapeId="0" xr:uid="{27610EE9-A3A8-40CA-8A0D-BE26099C4505}">
+    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{27610EE9-A3A8-40CA-8A0D-BE26099C4505}">
       <text>
         <r>
           <rPr>
@@ -566,7 +664,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K9" authorId="0" shapeId="0" xr:uid="{BF918F83-D58B-46AA-AB83-02772C77D60C}">
+    <comment ref="O9" authorId="0" shapeId="0" xr:uid="{BF918F83-D58B-46AA-AB83-02772C77D60C}">
       <text>
         <r>
           <rPr>
@@ -590,7 +688,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N9" authorId="0" shapeId="0" xr:uid="{960AF645-C149-407D-B0B9-2EF4831D05BD}">
+    <comment ref="R9" authorId="0" shapeId="0" xr:uid="{960AF645-C149-407D-B0B9-2EF4831D05BD}">
       <text>
         <r>
           <rPr>
@@ -698,7 +796,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{34B10223-7A34-446D-BC14-3CEB6051B6A9}">
+    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{34B10223-7A34-446D-BC14-3CEB6051B6A9}">
       <text>
         <r>
           <rPr>
@@ -722,7 +820,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{F68FE046-B4A1-4E11-A3F9-22AEA125C71A}">
+    <comment ref="M3" authorId="0" shapeId="0" xr:uid="{F68FE046-B4A1-4E11-A3F9-22AEA125C71A}">
       <text>
         <r>
           <rPr>
@@ -746,7 +844,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{2A5008E0-6771-496C-A929-12D90B68E371}">
+    <comment ref="N3" authorId="0" shapeId="0" xr:uid="{2A5008E0-6771-496C-A929-12D90B68E371}">
       <text>
         <r>
           <rPr>
@@ -770,7 +868,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="0" shapeId="0" xr:uid="{2E9194AA-01A3-4783-B5CF-A05FF31A6CD7}">
+    <comment ref="O3" authorId="0" shapeId="0" xr:uid="{2E9194AA-01A3-4783-B5CF-A05FF31A6CD7}">
       <text>
         <r>
           <rPr>
@@ -818,7 +916,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{297D4FF6-CDCE-45D9-A6E8-AC5B9C4D197D}">
+    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{297D4FF6-CDCE-45D9-A6E8-AC5B9C4D197D}">
       <text>
         <r>
           <rPr>
@@ -866,7 +964,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J8" authorId="0" shapeId="0" xr:uid="{1523F112-2C74-4805-922A-CB8AAAF04867}">
+    <comment ref="L8" authorId="0" shapeId="0" xr:uid="{1523F112-2C74-4805-922A-CB8AAAF04867}">
       <text>
         <r>
           <rPr>
@@ -887,7 +985,7 @@
           </rPr>
           <t xml:space="preserve">
 carnot efficiency 52%
-reference point temperature 0degC</t>
+see COP.__init__ and TechAttrDict.set_cop_timeseries to alter temperature sensitive values</t>
         </r>
       </text>
     </comment>
@@ -915,7 +1013,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J11" authorId="0" shapeId="0" xr:uid="{3C7C2244-BD28-40D3-AE47-CF0C120A57B6}">
+    <comment ref="L11" authorId="0" shapeId="0" xr:uid="{18D49C47-C316-4DE1-8702-1054D96734AA}">
       <text>
         <r>
           <rPr>
@@ -936,7 +1034,7 @@
           </rPr>
           <t xml:space="preserve">
 carnot efficiency 52%
-reference point temperature 0degC</t>
+see COP.__init__ and TechAttrDict.set_cop_timeseries to alter temperature sensitive values</t>
         </r>
       </text>
     </comment>
@@ -1012,7 +1110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J14" authorId="0" shapeId="0" xr:uid="{8D30FF0A-F524-4BAB-A2A9-55CA0982EF14}">
+    <comment ref="L14" authorId="0" shapeId="0" xr:uid="{9E1CE336-BD49-4F9D-8E90-4B40BEC5DBB1}">
       <text>
         <r>
           <rPr>
@@ -1033,11 +1131,11 @@
           </rPr>
           <t xml:space="preserve">
 carnot efficiency 52%
-reference point temperature 0degC</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M14" authorId="0" shapeId="0" xr:uid="{21E87ED6-F24A-4DA0-A3F6-1520504A752B}">
+see COP.__init__ and TechAttrDict.set_cop_timeseries to alter temperature sensitive values</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O14" authorId="0" shapeId="0" xr:uid="{21E87ED6-F24A-4DA0-A3F6-1520504A752B}">
       <text>
         <r>
           <rPr>
@@ -1109,7 +1207,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M15" authorId="0" shapeId="0" xr:uid="{F03E95D3-22AC-4F5A-A01A-E49103ED38DC}">
+    <comment ref="O15" authorId="0" shapeId="0" xr:uid="{F03E95D3-22AC-4F5A-A01A-E49103ED38DC}">
       <text>
         <r>
           <rPr>
@@ -1181,7 +1279,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M16" authorId="0" shapeId="0" xr:uid="{0C0424B8-830D-41AF-9090-E6C9C5134069}">
+    <comment ref="O16" authorId="0" shapeId="0" xr:uid="{0C0424B8-830D-41AF-9090-E6C9C5134069}">
       <text>
         <r>
           <rPr>
@@ -1229,7 +1327,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J17" authorId="0" shapeId="0" xr:uid="{83A59CBC-C651-4296-B728-A4C63937E558}">
+    <comment ref="L17" authorId="0" shapeId="0" xr:uid="{D5C8B703-4F31-48D6-BC14-1C0028F7D840}">
       <text>
         <r>
           <rPr>
@@ -1250,11 +1348,11 @@
           </rPr>
           <t xml:space="preserve">
 carnot efficiency 52%
-reference point temperature 0degC</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J20" authorId="0" shapeId="0" xr:uid="{3C79D586-F5D0-4B5A-AC0F-3EA6CC8B67C8}">
+see COP.__init__ and TechAttrDict.set_cop_timeseries to alter temperature sensitive values</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L20" authorId="0" shapeId="0" xr:uid="{3C79D586-F5D0-4B5A-AC0F-3EA6CC8B67C8}">
       <text>
         <r>
           <rPr>
@@ -1279,7 +1377,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J21" authorId="0" shapeId="0" xr:uid="{566B0EF5-BC2C-4947-BDAC-B85435D2E981}">
+    <comment ref="L21" authorId="0" shapeId="0" xr:uid="{566B0EF5-BC2C-4947-BDAC-B85435D2E981}">
       <text>
         <r>
           <rPr>
@@ -1303,7 +1401,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J23" authorId="0" shapeId="0" xr:uid="{0E42BBB0-E2D2-4B44-A8FB-B6C155C3EBB8}">
+    <comment ref="L23" authorId="0" shapeId="0" xr:uid="{0E42BBB0-E2D2-4B44-A8FB-B6C155C3EBB8}">
       <text>
         <r>
           <rPr>
@@ -1328,7 +1426,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J24" authorId="0" shapeId="0" xr:uid="{C5D0AF4C-BF2F-4C21-9650-2E8E580F6C8C}">
+    <comment ref="L24" authorId="0" shapeId="0" xr:uid="{C5D0AF4C-BF2F-4C21-9650-2E8E580F6C8C}">
       <text>
         <r>
           <rPr>
@@ -1400,7 +1498,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M26" authorId="0" shapeId="0" xr:uid="{D6B39009-5E6D-4876-B50F-8FFF1E50355C}">
+    <comment ref="O26" authorId="0" shapeId="0" xr:uid="{D6B39009-5E6D-4876-B50F-8FFF1E50355C}">
       <text>
         <r>
           <rPr>
@@ -1496,7 +1594,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I31" authorId="0" shapeId="0" xr:uid="{836C0350-BCB2-4707-B745-B34050695D1B}">
+    <comment ref="J31" authorId="0" shapeId="0" xr:uid="{836C0350-BCB2-4707-B745-B34050695D1B}">
       <text>
         <r>
           <rPr>
@@ -1520,7 +1618,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I32" authorId="0" shapeId="0" xr:uid="{32220E44-B3A9-4388-B223-558CBD5E3D40}">
+    <comment ref="J32" authorId="0" shapeId="0" xr:uid="{32220E44-B3A9-4388-B223-558CBD5E3D40}">
       <text>
         <r>
           <rPr>
@@ -1568,55 +1666,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F41" authorId="0" shapeId="0" xr:uid="{65164B85-7AD9-46ED-BA59-B321F930E502}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Yiqiao Wang:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-HSLU, piecewise</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G41" authorId="0" shapeId="0" xr:uid="{2FCEB2A5-1EB0-412F-97B9-2A0181217D42}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Yiqiao Wang:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-HSLU, piecewise</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M41" authorId="0" shapeId="0" xr:uid="{AF2745AD-0BD1-40F0-B7C8-39776BC84E0B}">
+    <comment ref="O41" authorId="0" shapeId="0" xr:uid="{AF2745AD-0BD1-40F0-B7C8-39776BC84E0B}">
       <text>
         <r>
           <rPr>
@@ -1637,54 +1687,6 @@
           </rPr>
           <t xml:space="preserve">
 hypothetical technology to cool down the water, no need to set up cost or emission</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F42" authorId="0" shapeId="0" xr:uid="{2BE5F77F-AADB-4F9A-8608-FB14C6E12DF2}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Yiqiao Wang:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-HSLU, piecewise</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G42" authorId="0" shapeId="0" xr:uid="{13F6E4E1-3905-46C5-82CD-0D783C742B45}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Yiqiao Wang:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-HSLU, piecewise</t>
         </r>
       </text>
     </comment>
@@ -2012,7 +2014,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{838C1899-AD71-407A-892C-57CED5C28137}">
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{838C1899-AD71-407A-892C-57CED5C28137}">
       <text>
         <r>
           <rPr>
@@ -2036,7 +2038,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{F0749ECF-8748-463A-AB60-85E38149A943}">
+    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{F0749ECF-8748-463A-AB60-85E38149A943}">
       <text>
         <r>
           <rPr>
@@ -2060,7 +2062,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{227B468A-D31B-4B26-AB25-82ACAC0160B1}">
+    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{227B468A-D31B-4B26-AB25-82ACAC0160B1}">
       <text>
         <r>
           <rPr>
@@ -2084,7 +2086,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{6B04D491-22C5-4C9D-8E0F-C5484E44DCCD}">
+    <comment ref="M3" authorId="0" shapeId="0" xr:uid="{6B04D491-22C5-4C9D-8E0F-C5484E44DCCD}">
       <text>
         <r>
           <rPr>
@@ -2108,7 +2110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="0" shapeId="0" xr:uid="{FC9B2166-9A6E-4D98-AD30-E36CE6C3D758}">
+    <comment ref="O3" authorId="0" shapeId="0" xr:uid="{FC9B2166-9A6E-4D98-AD30-E36CE6C3D758}">
       <text>
         <r>
           <rPr>
@@ -2180,7 +2182,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{D9359061-947C-4991-B1EC-3FEF9F5D7A82}">
+    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{D9359061-947C-4991-B1EC-3FEF9F5D7A82}">
       <text>
         <r>
           <rPr>
@@ -2252,7 +2254,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{B7E1B3AF-3A44-4383-BFA8-257E2C687078}">
+    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{B7E1B3AF-3A44-4383-BFA8-257E2C687078}">
       <text>
         <r>
           <rPr>
@@ -2310,6 +2312,34 @@
         </r>
       </text>
     </comment>
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{8ECA0440-B2AB-4EBA-96FA-267196992008}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Yiqiao Wang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+demand name can only start one of the following: 
+demand_electricity
+demand_space_heating
+demand_space_cooling
+demand_hot_water</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D5" authorId="0" shapeId="0" xr:uid="{6851F39F-632B-4707-BA04-39C040A7267F}">
       <text>
         <r>
@@ -2387,7 +2417,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="154">
   <si>
     <t>monetary</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2397,10 +2427,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gas_standard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PV_small</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2631,10 +2657,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>heat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>parent</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2651,318 +2673,346 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>conversion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>storage_loss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>storage_initial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interest_rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>primary_carrier_out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>primary_carrier_in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conversion_plus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>carrier_ratios</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>export</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>df=supply_SCET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>df=supply_SCFP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>demand_electricity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>demand_space_cooling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>demand_hot_water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#aeff60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#fac710</t>
+  </si>
+  <si>
+    <t>#12cdd4</t>
+  </si>
+  <si>
+    <t>#ff6728</t>
+  </si>
+  <si>
+    <t>demand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cooling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>df=demand_electricity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>df=demand_space_heating</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>df=demand_space_cooling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>df=demand_hot_water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>storage_cap_max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>demand_space_heating_35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#fcd510</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ffa210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>demand_space_heating_60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>demand_space_heating_85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>force_resource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PV_extra_large</t>
+  </si>
+  <si>
+    <t>#c69874</t>
+  </si>
+  <si>
+    <t>resource_area_per_energy_cap</t>
+  </si>
+  <si>
+    <t>ASHP_35_0_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASHP_60_0_5</t>
+  </si>
+  <si>
+    <t>ASHP_85_0_5</t>
+  </si>
+  <si>
+    <t>GSHP_35_0_5</t>
+  </si>
+  <si>
+    <t>GSHP_60_0_5</t>
+  </si>
+  <si>
+    <t>GSHP_85_0_5</t>
+  </si>
+  <si>
+    <t>gas_boiler_0_5</t>
+  </si>
+  <si>
+    <t>oil_boiler_0_5</t>
+  </si>
+  <si>
+    <t>ASHP_35_5_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASHP_60_5_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASHP_85_5_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASHP_35_10_20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASHP_60_10_20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASHP_85_10_20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASHP_35_20_200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASHP_60_20_200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASHP_85_20_200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GSHP_35_5_1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GSHP_60_5_1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GSHP_85_5_1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gas_boiler_5_20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gas_boiler_20_200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pellet_boiler_20_200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pellet_boiler_0_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pellet_boiler_5_20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oil_boiler_5_20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oil_boiler_20_200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pellet_boiler_200_500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gas_boiler_200_500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oil_boiler_200_500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gas_boiler_500_1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pellet_boiler_500_1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oil_boiler_500_1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heat_85</t>
+  </si>
+  <si>
+    <t>pellet</t>
+  </si>
+  <si>
+    <t>pellet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>df=supply_PV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>export</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>electricity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>export_carrier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>supply</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>conversion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>storage_loss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>storage_initial</t>
+    <t>df=cop_heating_35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>df=cop_heating_60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>df=cop_heating_85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gas_100_renewable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gas_50_renewable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gas_35_renewable</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>interest_rate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>primary_carrier_out</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>primary_carrier_in</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>conversion_plus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>carrier_ratios</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>export</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>df=supply_SCET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>df=supply_SCFP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>demand_electricity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>demand_space_cooling</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>demand_hot_water</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#aeff60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#fac710</t>
-  </si>
-  <si>
-    <t>#12cdd4</t>
-  </si>
-  <si>
-    <t>#ff6728</t>
-  </si>
-  <si>
-    <t>demand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cooling</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>df=demand_electricity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>df=demand_space_heating</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>df=demand_space_cooling</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>df=demand_hot_water</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>storage_cap_max</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>demand_space_heating_35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#fcd510</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#ffa210</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>demand_space_heating_60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>demand_space_heating_85</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>force_resource</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>purchase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PV_extra_large</t>
-  </si>
-  <si>
-    <t>#c69874</t>
-  </si>
-  <si>
-    <t>resource_area_per_energy_cap</t>
-  </si>
-  <si>
-    <t>supply_for_pv</t>
-  </si>
-  <si>
-    <t>ASHP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GSHP</t>
-  </si>
-  <si>
-    <t>GSHP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>water_tank</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gas_boiler</t>
-  </si>
-  <si>
-    <t>oil_boiler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>district_heating_techs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASHP_35_0_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASHP_60_0_5</t>
-  </si>
-  <si>
-    <t>ASHP_85_0_5</t>
-  </si>
-  <si>
-    <t>GSHP_35_0_5</t>
-  </si>
-  <si>
-    <t>GSHP_60_0_5</t>
-  </si>
-  <si>
-    <t>GSHP_85_0_5</t>
-  </si>
-  <si>
-    <t>gas_boiler_0_5</t>
-  </si>
-  <si>
-    <t>oil_boiler_0_5</t>
-  </si>
-  <si>
-    <t>ASHP_35_5_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASHP_60_5_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASHP_85_5_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASHP_35_10_20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASHP_60_10_20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASHP_85_10_20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASHP_35_20_200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASHP_60_20_200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASHP_85_20_200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GSHP_35_5_1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GSHP_60_5_1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GSHP_85_5_1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gas_boiler_5_20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gas_boiler_20_200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gas_boiler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pellet_boiler_20_200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pellet_boiler_0_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pellet_boiler_5_20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pellet_boiler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oil_boiler_5_20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oil_boiler_20_200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pellet_boiler_200_500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gas_boiler_200_500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oil_boiler_200_500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gas_boiler_500_1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pellet_boiler_500_1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oil_boiler_500_1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>heat_85</t>
-  </si>
-  <si>
-    <t>pellet</t>
-  </si>
-  <si>
-    <t>pellet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interest_rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interest_rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>df=electricity_supply_econatur_ewz_tariff</t>
+  </si>
+  <si>
+    <t>df=electricity_feedin_ewz_tariff</t>
   </si>
 </sst>
 </file>
@@ -3047,7 +3097,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3068,9 +3118,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3426,194 +3473,290 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2603C43B-861B-457A-A24B-3EBFF53534AD}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.35546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.35546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.35546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.9140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.4140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4">
-        <v>0.2505</v>
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>152</v>
       </c>
       <c r="F4">
+        <v>0.05</v>
+      </c>
+      <c r="G4">
         <v>0.02</v>
       </c>
-      <c r="G4">
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
+        <v>144</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>147</v>
       </c>
       <c r="E5">
-        <v>0.13250000000000001</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="F5">
-        <v>0.23</v>
+        <v>0.05</v>
       </c>
       <c r="G5">
+        <v>0.124</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>147</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
+        <v>145</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="D6" t="s">
         <v>147</v>
       </c>
       <c r="E6">
-        <v>0.10199999999999999</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="F6">
+        <v>0.05</v>
+      </c>
+      <c r="G6">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <v>0.13250000000000001</v>
+      </c>
+      <c r="F7">
+        <v>0.05</v>
+      </c>
+      <c r="G7">
+        <v>0.19289999999999999</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8">
+        <v>0.09</v>
+      </c>
+      <c r="F8">
+        <v>0.05</v>
+      </c>
+      <c r="G8">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="G6">
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>0.1</v>
+      </c>
+      <c r="F9">
+        <v>0.05</v>
+      </c>
+      <c r="G9">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B10" t="s">
         <v>28</v>
       </c>
-      <c r="C7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7">
-        <v>0.1</v>
-      </c>
-      <c r="F7">
-        <v>0.32400000000000001</v>
-      </c>
-      <c r="G7">
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>0.122</v>
+      </c>
+      <c r="F10">
+        <v>0.05</v>
+      </c>
+      <c r="G10">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8">
-        <v>0.122</v>
-      </c>
-      <c r="F8">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A1:D2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3623,208 +3766,376 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{561E90E2-20B4-48EB-B5A5-7E82D5B88F8D}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.35546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.35546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" customWidth="1"/>
-    <col min="10" max="10" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:18">
+      <c r="A1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="L3" s="3" t="s">
+      <c r="P3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="R3" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>140</v>
+      </c>
+      <c r="D4" t="s">
+        <v>138</v>
       </c>
       <c r="E4">
         <v>3000</v>
       </c>
-      <c r="L4">
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="M4">
+      <c r="G4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H4">
+        <v>0.05</v>
+      </c>
+      <c r="I4">
+        <v>1250</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>136</v>
+      </c>
+      <c r="L4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O4">
+        <v>5</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="R4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>140</v>
+      </c>
+      <c r="D5" t="s">
+        <v>138</v>
       </c>
       <c r="E5">
         <v>1600</v>
       </c>
-      <c r="L5">
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>153</v>
+      </c>
+      <c r="H5">
+        <v>0.05</v>
+      </c>
+      <c r="I5">
+        <v>1250</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>136</v>
+      </c>
+      <c r="L5" t="s">
+        <v>138</v>
+      </c>
+      <c r="M5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5">
+        <v>5</v>
+      </c>
+      <c r="P5">
         <v>10</v>
       </c>
-      <c r="M5">
+      <c r="Q5">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="R5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>140</v>
+      </c>
+      <c r="D6" t="s">
+        <v>138</v>
       </c>
       <c r="E6">
         <v>1300</v>
       </c>
-      <c r="L6">
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>153</v>
+      </c>
+      <c r="H6">
+        <v>0.05</v>
+      </c>
+      <c r="I6">
+        <v>1250</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>136</v>
+      </c>
+      <c r="L6" t="s">
+        <v>138</v>
+      </c>
+      <c r="M6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
+      </c>
+      <c r="P6">
         <v>100</v>
       </c>
-      <c r="M6">
+      <c r="Q6">
         <v>200</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="R6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>140</v>
+      </c>
+      <c r="D7" t="s">
+        <v>138</v>
       </c>
       <c r="E7">
         <v>1000</v>
       </c>
-      <c r="L7">
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H7">
+        <v>0.05</v>
+      </c>
+      <c r="I7">
+        <v>1250</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L7" t="s">
+        <v>138</v>
+      </c>
+      <c r="M7" t="b">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>50</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7">
         <v>200</v>
       </c>
-      <c r="M7">
+      <c r="Q7">
         <v>2000</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="R7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>140</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E8">
         <v>1576</v>
@@ -3832,40 +4143,46 @@
       <c r="F8">
         <v>1</v>
       </c>
-      <c r="G8">
+      <c r="H8">
+        <v>0.05</v>
+      </c>
+      <c r="I8">
         <v>290</v>
       </c>
-      <c r="H8" t="s">
-        <v>78</v>
-      </c>
-      <c r="I8" t="b">
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>75</v>
+      </c>
+      <c r="M8" t="b">
         <v>1</v>
       </c>
-      <c r="J8" t="s">
-        <v>51</v>
-      </c>
-      <c r="K8">
+      <c r="N8" t="s">
+        <v>50</v>
+      </c>
+      <c r="O8">
         <v>1.2969999999999999</v>
       </c>
-      <c r="L8">
+      <c r="P8">
         <v>1</v>
       </c>
-      <c r="N8">
+      <c r="R8">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>140</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9">
         <v>2047</v>
@@ -3873,34 +4190,41 @@
       <c r="F9">
         <v>1</v>
       </c>
-      <c r="G9">
+      <c r="H9">
+        <v>0.05</v>
+      </c>
+      <c r="I9">
         <v>296</v>
       </c>
-      <c r="H9" t="s">
-        <v>77</v>
-      </c>
-      <c r="I9" t="b">
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>74</v>
+      </c>
+      <c r="M9" t="b">
         <v>1</v>
       </c>
-      <c r="J9" t="s">
-        <v>51</v>
-      </c>
-      <c r="K9">
+      <c r="N9" t="s">
+        <v>50</v>
+      </c>
+      <c r="O9">
         <v>1.41</v>
       </c>
-      <c r="L9">
+      <c r="P9">
         <v>1</v>
       </c>
-      <c r="N9">
+      <c r="R9">
         <v>23</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="H1:N2"/>
+  <mergeCells count="5">
+    <mergeCell ref="K1:R2"/>
     <mergeCell ref="A1:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="E2:H2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3910,121 +4234,133 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A246388-C9BA-4771-92A8-398DB13C28C5}">
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:O42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.35546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.35546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.2109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.9140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.9140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8" t="s">
+      <c r="C3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="O3" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F4">
         <v>371.80000000000013</v>
@@ -4036,27 +4372,39 @@
         <v>150</v>
       </c>
       <c r="I4">
+        <v>0.05</v>
+      </c>
+      <c r="J4">
         <v>4.7709999999999999</v>
       </c>
       <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0.95</v>
+      </c>
+      <c r="M4">
         <v>15</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="O4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5">
         <v>180.88</v>
@@ -4068,27 +4416,39 @@
         <v>150</v>
       </c>
       <c r="I5">
+        <v>0.05</v>
+      </c>
+      <c r="J5">
         <v>4.7709999999999999</v>
       </c>
       <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0.95</v>
+      </c>
+      <c r="M5">
         <v>50</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>200</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="O5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6">
         <v>117.4</v>
@@ -4100,27 +4460,39 @@
         <v>150</v>
       </c>
       <c r="I6">
+        <v>0.05</v>
+      </c>
+      <c r="J6">
         <v>4.7709999999999999</v>
       </c>
       <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0.95</v>
+      </c>
+      <c r="M6">
         <v>200</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>500</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="O6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7">
         <v>72.010000000000005</v>
@@ -4132,27 +4504,39 @@
         <v>150</v>
       </c>
       <c r="I7">
+        <v>0.05</v>
+      </c>
+      <c r="J7">
         <v>4.7709999999999999</v>
       </c>
       <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0.95</v>
+      </c>
+      <c r="M7">
         <v>500</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>2000</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="O7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4164,27 +4548,39 @@
         <v>4.6399999999999997</v>
       </c>
       <c r="I8">
+        <v>0.05</v>
+      </c>
+      <c r="J8">
         <v>45.9</v>
       </c>
-      <c r="J8">
-        <v>4.58</v>
-      </c>
-      <c r="L8">
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>141</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="O8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -4196,27 +4592,39 @@
         <v>4.6399999999999997</v>
       </c>
       <c r="I9">
+        <v>0.05</v>
+      </c>
+      <c r="J9">
         <v>45.9</v>
       </c>
-      <c r="J9">
-        <v>2.89</v>
-      </c>
-      <c r="L9">
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>142</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="O9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -4228,27 +4636,39 @@
         <v>4.6399999999999997</v>
       </c>
       <c r="I10">
+        <v>0.05</v>
+      </c>
+      <c r="J10">
         <v>45.9</v>
       </c>
-      <c r="J10">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="L10">
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>143</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="O10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C11" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11">
         <v>660</v>
@@ -4260,30 +4680,39 @@
         <v>4.6399999999999997</v>
       </c>
       <c r="I11">
+        <v>0.05</v>
+      </c>
+      <c r="J11">
         <v>45.9</v>
       </c>
-      <c r="J11">
-        <v>4.58</v>
-      </c>
       <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>141</v>
+      </c>
+      <c r="M11">
         <v>5</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="O11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C12" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12">
         <v>660</v>
@@ -4295,30 +4724,39 @@
         <v>4.6399999999999997</v>
       </c>
       <c r="I12">
+        <v>0.05</v>
+      </c>
+      <c r="J12">
         <v>45.9</v>
       </c>
-      <c r="J12">
-        <v>2.89</v>
-      </c>
       <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>142</v>
+      </c>
+      <c r="M12">
         <v>5</v>
       </c>
-      <c r="L12">
+      <c r="N12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="O12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F13">
         <v>660</v>
@@ -4330,31 +4768,40 @@
         <v>4.6399999999999997</v>
       </c>
       <c r="I13">
+        <v>0.05</v>
+      </c>
+      <c r="J13">
         <v>45.9</v>
       </c>
-      <c r="J13">
-        <v>2.2000000000000002</v>
-      </c>
       <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>143</v>
+      </c>
+      <c r="M13">
         <v>5</v>
       </c>
-      <c r="L13">
+      <c r="N13">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="O13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F14">
         <v>1560</v>
@@ -4366,31 +4813,40 @@
         <v>4.6399999999999997</v>
       </c>
       <c r="I14">
+        <v>0.05</v>
+      </c>
+      <c r="J14">
         <v>45.9</v>
       </c>
-      <c r="J14">
-        <v>4.58</v>
-      </c>
       <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>141</v>
+      </c>
+      <c r="M14">
         <v>10</v>
       </c>
-      <c r="L14">
+      <c r="N14">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="O14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F15">
         <v>1560</v>
@@ -4402,31 +4858,40 @@
         <v>4.6399999999999997</v>
       </c>
       <c r="I15">
+        <v>0.05</v>
+      </c>
+      <c r="J15">
         <v>45.9</v>
       </c>
-      <c r="J15">
-        <v>2.89</v>
-      </c>
       <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
+        <v>142</v>
+      </c>
+      <c r="M15">
         <v>10</v>
       </c>
-      <c r="L15">
+      <c r="N15">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="O15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F16">
         <v>1560</v>
@@ -4438,31 +4903,40 @@
         <v>4.6399999999999997</v>
       </c>
       <c r="I16">
+        <v>0.05</v>
+      </c>
+      <c r="J16">
         <v>45.9</v>
       </c>
-      <c r="J16">
-        <v>2.2000000000000002</v>
-      </c>
       <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>143</v>
+      </c>
+      <c r="M16">
         <v>10</v>
       </c>
-      <c r="L16">
+      <c r="N16">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="O16">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F17">
         <v>1843.3</v>
@@ -4474,31 +4948,40 @@
         <v>4.6399999999999997</v>
       </c>
       <c r="I17">
+        <v>0.05</v>
+      </c>
+      <c r="J17">
         <v>45.9</v>
       </c>
-      <c r="J17">
-        <v>4.58</v>
-      </c>
       <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>141</v>
+      </c>
+      <c r="M17">
         <v>20</v>
       </c>
-      <c r="L17">
+      <c r="N17">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="O17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F18">
         <v>1843.3</v>
@@ -4510,31 +4993,40 @@
         <v>4.6399999999999997</v>
       </c>
       <c r="I18">
+        <v>0.05</v>
+      </c>
+      <c r="J18">
         <v>45.9</v>
       </c>
-      <c r="J18">
-        <v>2.89</v>
-      </c>
       <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>142</v>
+      </c>
+      <c r="M18">
         <v>20</v>
       </c>
-      <c r="L18">
+      <c r="N18">
         <v>200</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="O18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F19">
         <v>1843.3</v>
@@ -4546,30 +5038,39 @@
         <v>4.6399999999999997</v>
       </c>
       <c r="I19">
+        <v>0.05</v>
+      </c>
+      <c r="J19">
         <v>45.9</v>
       </c>
-      <c r="J19">
-        <v>2.2000000000000002</v>
-      </c>
       <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
+        <v>143</v>
+      </c>
+      <c r="M19">
         <v>20</v>
       </c>
-      <c r="L19">
+      <c r="N19">
         <v>200</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="O19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C20" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -4581,27 +5082,39 @@
         <v>11.57</v>
       </c>
       <c r="I20">
+        <v>0.05</v>
+      </c>
+      <c r="J20">
         <v>36.299999999999997</v>
       </c>
-      <c r="J20">
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
         <v>7.64</v>
       </c>
-      <c r="L20">
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="O20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C21" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -4613,27 +5126,39 @@
         <v>11.57</v>
       </c>
       <c r="I21">
+        <v>0.05</v>
+      </c>
+      <c r="J21">
         <v>36.299999999999997</v>
       </c>
-      <c r="J21">
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
         <v>4.13</v>
       </c>
-      <c r="L21">
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="O21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C22" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="D22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -4645,28 +5170,40 @@
         <v>11.57</v>
       </c>
       <c r="I22">
+        <v>0.05</v>
+      </c>
+      <c r="J22">
         <v>36.299999999999997</v>
       </c>
-      <c r="J22">
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
         <v>2.96</v>
       </c>
-      <c r="L22">
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="O22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="D23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F23">
         <v>1281.7</v>
@@ -4678,31 +5215,40 @@
         <v>11.57</v>
       </c>
       <c r="I23">
+        <v>0.05</v>
+      </c>
+      <c r="J23">
         <v>36.299999999999997</v>
       </c>
-      <c r="J23">
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
         <v>7.64</v>
       </c>
-      <c r="K23">
+      <c r="M23">
         <v>5</v>
       </c>
-      <c r="L23">
+      <c r="N23">
         <v>1000</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="O23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="D24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F24">
         <v>1281.7</v>
@@ -4714,31 +5260,40 @@
         <v>11.57</v>
       </c>
       <c r="I24">
+        <v>0.05</v>
+      </c>
+      <c r="J24">
         <v>36.299999999999997</v>
       </c>
-      <c r="J24">
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
         <v>4.13</v>
       </c>
-      <c r="K24">
+      <c r="M24">
         <v>5</v>
       </c>
-      <c r="L24">
+      <c r="N24">
         <v>1000</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="O24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="D25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F25">
         <v>1281.7</v>
@@ -4750,31 +5305,40 @@
         <v>11.57</v>
       </c>
       <c r="I25">
+        <v>0.05</v>
+      </c>
+      <c r="J25">
         <v>36.299999999999997</v>
       </c>
-      <c r="J25">
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
         <v>2.96</v>
       </c>
-      <c r="K25">
+      <c r="M25">
         <v>5</v>
       </c>
-      <c r="L25">
+      <c r="N25">
         <v>1000</v>
       </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="O25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="D26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -4785,29 +5349,41 @@
       <c r="H26">
         <v>6.3</v>
       </c>
+      <c r="I26">
+        <v>0.05</v>
+      </c>
       <c r="J26">
+        <v>43.97</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
         <v>0.91</v>
       </c>
-      <c r="L26">
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
         <v>5</v>
       </c>
-      <c r="M26">
+      <c r="O26">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="D27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F27">
         <v>333.33</v>
@@ -4818,32 +5394,41 @@
       <c r="H27">
         <v>6.3</v>
       </c>
+      <c r="I27">
+        <v>0.05</v>
+      </c>
       <c r="J27">
+        <v>43.97</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
         <v>0.91</v>
       </c>
-      <c r="K27">
+      <c r="M27">
         <v>5</v>
       </c>
-      <c r="L27">
+      <c r="N27">
         <v>20</v>
       </c>
-      <c r="M27">
+      <c r="O27">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" t="s">
         <v>133</v>
-      </c>
-      <c r="D28" t="s">
-        <v>31</v>
-      </c>
-      <c r="E28" t="s">
-        <v>146</v>
       </c>
       <c r="F28">
         <v>216.67</v>
@@ -4854,32 +5439,41 @@
       <c r="H28">
         <v>6.3</v>
       </c>
+      <c r="I28">
+        <v>0.05</v>
+      </c>
       <c r="J28">
+        <v>43.97</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
         <v>0.91</v>
       </c>
-      <c r="K28">
+      <c r="M28">
         <v>20</v>
       </c>
-      <c r="L28">
+      <c r="N28">
         <v>200</v>
       </c>
-      <c r="M28">
+      <c r="O28">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" t="s">
         <v>133</v>
-      </c>
-      <c r="D29" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" t="s">
-        <v>146</v>
       </c>
       <c r="F29">
         <v>187.67</v>
@@ -4890,32 +5484,41 @@
       <c r="H29">
         <v>6.3</v>
       </c>
+      <c r="I29">
+        <v>0.05</v>
+      </c>
       <c r="J29">
+        <v>43.97</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
         <v>0.91</v>
       </c>
-      <c r="K29">
+      <c r="M29">
         <v>200</v>
       </c>
-      <c r="L29">
+      <c r="N29">
         <v>500</v>
       </c>
-      <c r="M29">
+      <c r="O29">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" t="s">
         <v>133</v>
-      </c>
-      <c r="D30" t="s">
-        <v>31</v>
-      </c>
-      <c r="E30" t="s">
-        <v>146</v>
       </c>
       <c r="F30">
         <v>124</v>
@@ -4926,32 +5529,41 @@
       <c r="H30">
         <v>6.3</v>
       </c>
+      <c r="I30">
+        <v>0.05</v>
+      </c>
       <c r="J30">
+        <v>43.97</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
         <v>0.91</v>
       </c>
-      <c r="K30">
+      <c r="M30">
         <v>500</v>
       </c>
-      <c r="L30">
+      <c r="N30">
         <v>1000</v>
       </c>
-      <c r="M30">
+      <c r="O30">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" t="s">
-        <v>137</v>
+        <v>64</v>
       </c>
       <c r="D31" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="E31" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -4962,29 +5574,41 @@
       <c r="H31">
         <v>6.3</v>
       </c>
+      <c r="I31">
+        <v>0.05</v>
+      </c>
       <c r="J31">
+        <v>198.3</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
         <v>0.89</v>
       </c>
-      <c r="L31">
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
         <v>5</v>
       </c>
-      <c r="M31">
+      <c r="O31">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:15">
       <c r="A32" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" t="s">
-        <v>137</v>
+        <v>64</v>
       </c>
       <c r="D32" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="E32" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="F32">
         <v>913.33</v>
@@ -4995,32 +5619,41 @@
       <c r="H32">
         <v>6.3</v>
       </c>
+      <c r="I32">
+        <v>0.05</v>
+      </c>
       <c r="J32">
+        <v>198.3</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
         <v>0.89</v>
       </c>
-      <c r="K32">
+      <c r="M32">
         <v>5</v>
       </c>
-      <c r="L32">
+      <c r="N32">
         <v>20</v>
       </c>
-      <c r="M32">
+      <c r="O32">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:15">
       <c r="A33" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" t="s">
-        <v>137</v>
+        <v>64</v>
       </c>
       <c r="D33" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="E33" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="F33">
         <v>455</v>
@@ -5031,32 +5664,41 @@
       <c r="H33">
         <v>6.3</v>
       </c>
+      <c r="I33">
+        <v>0.05</v>
+      </c>
       <c r="J33">
+        <v>198.3</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
         <v>0.89</v>
-      </c>
-      <c r="K33">
-        <v>20</v>
-      </c>
-      <c r="L33">
-        <v>200</v>
       </c>
       <c r="M33">
         <v>20</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33">
+        <v>200</v>
+      </c>
+      <c r="O33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" t="s">
-        <v>137</v>
+        <v>64</v>
       </c>
       <c r="D34" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="E34" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="F34">
         <v>310.33</v>
@@ -5067,32 +5709,41 @@
       <c r="H34">
         <v>6.3</v>
       </c>
+      <c r="I34">
+        <v>0.05</v>
+      </c>
       <c r="J34">
+        <v>198.3</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
         <v>0.89</v>
       </c>
-      <c r="K34">
+      <c r="M34">
         <v>200</v>
       </c>
-      <c r="L34">
+      <c r="N34">
         <v>500</v>
       </c>
-      <c r="M34">
+      <c r="O34">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:15">
       <c r="A35" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" t="s">
-        <v>137</v>
+        <v>64</v>
       </c>
       <c r="D35" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="E35" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="F35">
         <v>591.6</v>
@@ -5103,32 +5754,41 @@
       <c r="H35">
         <v>6.3</v>
       </c>
+      <c r="I35">
+        <v>0.05</v>
+      </c>
       <c r="J35">
+        <v>198.3</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
         <v>0.89</v>
       </c>
-      <c r="K35">
+      <c r="M35">
         <v>500</v>
       </c>
-      <c r="L35">
+      <c r="N35">
         <v>1000</v>
       </c>
-      <c r="M35">
+      <c r="O35">
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:15">
       <c r="A36" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" t="s">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E36" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -5139,29 +5799,41 @@
       <c r="H36">
         <v>3.5</v>
       </c>
+      <c r="I36">
+        <v>0.05</v>
+      </c>
       <c r="J36">
+        <v>43.97</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
         <v>0.92</v>
       </c>
-      <c r="L36">
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
         <v>5</v>
       </c>
-      <c r="M36">
+      <c r="O36">
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:15">
       <c r="A37" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" t="s">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E37" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="F37">
         <v>520</v>
@@ -5172,32 +5844,41 @@
       <c r="H37">
         <v>3.5</v>
       </c>
+      <c r="I37">
+        <v>0.05</v>
+      </c>
       <c r="J37">
+        <v>43.97</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
         <v>0.92</v>
       </c>
-      <c r="K37">
+      <c r="M37">
         <v>5</v>
       </c>
-      <c r="L37">
+      <c r="N37">
         <v>20</v>
       </c>
-      <c r="M37">
+      <c r="O37">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:15">
       <c r="A38" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" t="s">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E38" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="F38">
         <v>229.44</v>
@@ -5208,32 +5889,41 @@
       <c r="H38">
         <v>3.5</v>
       </c>
+      <c r="I38">
+        <v>0.05</v>
+      </c>
       <c r="J38">
+        <v>43.97</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
         <v>0.92</v>
-      </c>
-      <c r="K38">
-        <v>20</v>
-      </c>
-      <c r="L38">
-        <v>200</v>
       </c>
       <c r="M38">
         <v>20</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38">
+        <v>200</v>
+      </c>
+      <c r="O38">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" t="s">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E39" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="F39">
         <v>244</v>
@@ -5244,32 +5934,41 @@
       <c r="H39">
         <v>3.5</v>
       </c>
+      <c r="I39">
+        <v>0.05</v>
+      </c>
       <c r="J39">
+        <v>43.97</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
         <v>0.92</v>
       </c>
-      <c r="K39">
+      <c r="M39">
         <v>200</v>
       </c>
-      <c r="L39">
+      <c r="N39">
         <v>500</v>
       </c>
-      <c r="M39">
+      <c r="O39">
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:15">
       <c r="A40" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" t="s">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E40" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="F40">
         <v>111.8</v>
@@ -5280,77 +5979,75 @@
       <c r="H40">
         <v>3.5</v>
       </c>
+      <c r="I40">
+        <v>0.05</v>
+      </c>
       <c r="J40">
+        <v>43.97</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
         <v>0.92</v>
       </c>
-      <c r="K40">
+      <c r="M40">
         <v>500</v>
       </c>
-      <c r="L40">
+      <c r="N40">
         <v>1000</v>
       </c>
-      <c r="M40">
+      <c r="O40">
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:15">
       <c r="A41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" t="s">
+        <v>47</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" t="s">
         <v>56</v>
       </c>
-      <c r="C41" t="s">
-        <v>67</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="C42" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" t="s">
         <v>37</v>
       </c>
-      <c r="E41" t="s">
-        <v>48</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="J41">
+      <c r="L42">
         <v>1</v>
       </c>
-      <c r="M41">
+      <c r="O42">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
-      <c r="A42" t="s">
-        <v>57</v>
-      </c>
-      <c r="C42" t="s">
-        <v>67</v>
-      </c>
-      <c r="D42" t="s">
-        <v>48</v>
-      </c>
-      <c r="E42" t="s">
-        <v>38</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>1</v>
-      </c>
-      <c r="M42">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="J1:M2"/>
-    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="L1:O2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="F1:K1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5363,248 +6060,248 @@
   <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.35546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.2109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.2109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.640625" customWidth="1"/>
-    <col min="17" max="17" width="10.2109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.2109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.2109375" customWidth="1"/>
-    <col min="22" max="22" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" customWidth="1"/>
+    <col min="17" max="17" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.25" customWidth="1"/>
+    <col min="22" max="22" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8" t="s">
+      <c r="C3" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-    </row>
-    <row r="2" spans="1:24">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-    </row>
-    <row r="3" spans="1:24">
-      <c r="A3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="R3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="S4" s="8"/>
+      <c r="T4" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="V3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="W3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="X3" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="S4" s="9"/>
-      <c r="T4" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="U4" s="9"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
     </row>
     <row r="5" spans="1:24">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
       <c r="R5" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="U5" s="9"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="U5" s="8"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
     </row>
     <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I6" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="J6">
         <v>1108.2</v>
@@ -5612,8 +6309,8 @@
       <c r="K6">
         <v>0.05</v>
       </c>
-      <c r="L6" s="7">
-        <v>-0.12720000000000001</v>
+      <c r="L6" t="s">
+        <v>153</v>
       </c>
       <c r="M6">
         <v>33195</v>
@@ -5636,7 +6333,7 @@
         <v>0.64</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V6">
         <v>10</v>
@@ -5650,18 +6347,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="Q3:Q5"/>
-    <mergeCell ref="W3:W5"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="I3:I5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="L3:L5"/>
-    <mergeCell ref="U3:U5"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="J1:P1"/>
     <mergeCell ref="D3:D5"/>
@@ -5678,6 +6363,18 @@
     <mergeCell ref="R3:T3"/>
     <mergeCell ref="X3:X5"/>
     <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="Q3:Q5"/>
+    <mergeCell ref="W3:W5"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="L3:L5"/>
+    <mergeCell ref="U3:U5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5687,122 +6384,134 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED8072C-161B-4E9B-9246-F2F0563C6573}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.5" defaultRowHeight="14.15"/>
+  <sheetFormatPr defaultColWidth="16.5" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.35546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.4140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.0703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.0703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.0703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.2109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29" customWidth="1"/>
+    <col min="8" max="8" width="11.4140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.4140625" customWidth="1"/>
+    <col min="10" max="10" width="10.08203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.08203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.08203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8" t="s">
+      <c r="C3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="K3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="M3" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>65</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>367</v>
@@ -5811,93 +6520,172 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="G4">
+        <v>0.05</v>
+      </c>
+      <c r="H4">
         <v>241.5</v>
       </c>
-      <c r="H4">
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
         <v>0.91</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>1000</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>0.25</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>1E-3</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>0.5</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5">
+        <v>13</v>
+      </c>
+      <c r="F5">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G5">
+        <v>0.05</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0.96</v>
+      </c>
+      <c r="K5">
+        <v>1000</v>
+      </c>
+      <c r="M5">
+        <v>0.01</v>
+      </c>
+      <c r="N5">
+        <v>0.5</v>
+      </c>
+      <c r="O5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G6">
+        <v>0.05</v>
+      </c>
+      <c r="H6">
+        <v>7</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0.95</v>
+      </c>
+      <c r="K6">
+        <v>1000</v>
+      </c>
+      <c r="M6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N6">
+        <v>0.5</v>
+      </c>
+      <c r="O6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5">
-        <v>0.96</v>
-      </c>
-      <c r="K5">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6">
-        <v>0.95</v>
-      </c>
-      <c r="K6">
+      <c r="C7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7">
+        <v>13</v>
+      </c>
+      <c r="F7">
         <v>1.4999999999999999E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D7" t="s">
-        <v>37</v>
+      <c r="G7">
+        <v>0.05</v>
       </c>
       <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
         <v>0.94</v>
       </c>
       <c r="K7">
+        <v>1000</v>
+      </c>
+      <c r="M7">
         <v>0.02</v>
       </c>
+      <c r="N7">
+        <v>0.5</v>
+      </c>
+      <c r="O7">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:D2"/>
-    <mergeCell ref="H1:M2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="J1:O2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="E1:I1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5909,154 +6697,154 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC5F6A9-7225-4810-BBAF-71A9F1C444F7}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="23.35546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.2109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8" t="s">
-        <v>18</v>
+      <c r="A1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" t="s">
         <v>79</v>
       </c>
-      <c r="B4" t="s">
-        <v>82</v>
-      </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" t="s">
         <v>83</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
         <v>86</v>
-      </c>
-      <c r="D5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
         <v>86</v>
-      </c>
-      <c r="D6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
         <v>86</v>
-      </c>
-      <c r="D7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" t="s">
         <v>84</v>
       </c>
-      <c r="C8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>87</v>
-      </c>
-      <c r="E8" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
